--- a/Data_Madrid.xlsx
+++ b/Data_Madrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasritter/Dropbox/Kerstin-Matthias/COVID/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/matthias.ritter/MATLAB/Covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41625227-06EA-1C4C-B455-0AF7B7E0B513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFA4E8-31F6-844E-AF14-09E49972676D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1460" windowWidth="24140" windowHeight="13980" activeTab="1" xr2:uid="{E07928EA-6058-FC45-8613-99E85D9E941E}"/>
+    <workbookView xWindow="1120" yWindow="1460" windowWidth="24140" windowHeight="13980" xr2:uid="{E07928EA-6058-FC45-8613-99E85D9E941E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +75,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,14 +105,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB3561-6D36-DB4A-B83E-F33A138580EE}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1505,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D267A4-C400-D143-949B-D038398798EC}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,11 +1531,14 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{076C1FFC-E3AE-D84F-A257-4FDA41F02B2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Madrid.xlsx
+++ b/Data_Madrid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/matthias.ritter/MATLAB/Covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasritter/Desktop/Covid-19-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFA4E8-31F6-844E-AF14-09E49972676D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB80BB1-B43B-8C49-8F55-579D61EF8D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1460" windowWidth="24140" windowHeight="13980" xr2:uid="{E07928EA-6058-FC45-8613-99E85D9E941E}"/>
   </bookViews>
@@ -430,7 +430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB3561-6D36-DB4A-B83E-F33A138580EE}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
